--- a/biology/Histoire de la zoologie et de la botanique/Henry_Baker_(naturaliste)/Henry_Baker_(naturaliste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Baker_(naturaliste)/Henry_Baker_(naturaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Baker (8 mai 1698 – 8 mai 1774) est un naturaliste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Baker naît à Londres. Après un apprentissage chez un libraire il invente un système pour instruire les sourds et les muets, système qui lui assure des revenus confortables. Ceci attire l'attention de Daniel Defoe dont la plus jeune sœur, Sophia, se marie avec Baker en 1729.
 Un an avant cela, sous le nom de Henry Stonecastle, il s'associe en affaire avec Defoe. En 1740, il est élu membre de la Society of Antiquaries of London et de la Royal Society. Il contribue à de nombreux mémoires dans les Transactions of the Royal Society et reçoit en 1744 la médaille Copley pour ses observations au microscope de la cristallisation de particules de sel.  Il étudie aussi de nombreux animaux aquatiques ainsi que des fossiles.
